--- a/Measurement_Results/UV-VIS/29.02.16/GNP_alle.xlsx
+++ b/Measurement_Results/UV-VIS/29.02.16/GNP_alle.xlsx
@@ -13393,11 +13393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195712512"/>
-        <c:axId val="195714048"/>
+        <c:axId val="159589888"/>
+        <c:axId val="159591424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195712512"/>
+        <c:axId val="159589888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13407,12 +13407,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195714048"/>
+        <c:crossAx val="159591424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195714048"/>
+        <c:axId val="159591424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13424,7 +13424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195712512"/>
+        <c:crossAx val="159589888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13476,7 +13476,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -18153,11 +18152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195431808"/>
-        <c:axId val="195458176"/>
+        <c:axId val="159386624"/>
+        <c:axId val="159396608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195431808"/>
+        <c:axId val="159386624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -18169,12 +18168,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195458176"/>
+        <c:crossAx val="159396608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195458176"/>
+        <c:axId val="159396608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18185,7 +18184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195431808"/>
+        <c:crossAx val="159386624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18232,7 +18231,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22909,11 +22907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195487232"/>
-        <c:axId val="195488768"/>
+        <c:axId val="159433472"/>
+        <c:axId val="159435008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195487232"/>
+        <c:axId val="159433472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -22925,12 +22923,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195488768"/>
+        <c:crossAx val="159435008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195488768"/>
+        <c:axId val="159435008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22941,7 +22939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195487232"/>
+        <c:crossAx val="159433472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22988,7 +22986,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -27665,11 +27662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196627840"/>
-        <c:axId val="196629632"/>
+        <c:axId val="159533696"/>
+        <c:axId val="159535488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196627840"/>
+        <c:axId val="159533696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -27681,12 +27678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196629632"/>
+        <c:crossAx val="159535488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196629632"/>
+        <c:axId val="159535488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27697,7 +27694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196627840"/>
+        <c:crossAx val="159533696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -28128,8 +28125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ACR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JV17" zoomScale="83" workbookViewId="0">
-      <selection activeCell="KE41" sqref="KE41"/>
+    <sheetView tabSelected="1" topLeftCell="HP17" zoomScale="83" workbookViewId="0">
+      <selection activeCell="HU40" sqref="HU40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
